--- a/translations/kanji/KanjiDataFull.xlsx
+++ b/translations/kanji/KanjiDataFull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\whitby\Documents\GitHub\whitbyfish.github.io\translations\kanji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433302A2-BAEE-48DF-AE49-0C5C12AE3F82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CCB8FD-9066-4ABB-8254-423CBE398845}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="229">
   <si>
     <t>笑</t>
   </si>
@@ -677,6 +677,36 @@
   </si>
   <si>
     <t>HI</t>
+  </si>
+  <si>
+    <t>kun - hanasu/hanashi (talk/story)</t>
+  </si>
+  <si>
+    <t>on - wa</t>
+  </si>
+  <si>
+    <t>on - rai/tai</t>
+  </si>
+  <si>
+    <t>kun - tomo (friend)</t>
+  </si>
+  <si>
+    <t>on - yuu</t>
+  </si>
+  <si>
+    <t>kun - ku(ru)/kita(ru) (come/due/next/become)</t>
+  </si>
+  <si>
+    <t>kun - tachi (accomplished/reach)</t>
+  </si>
+  <si>
+    <t>on - tatsu/da</t>
+  </si>
+  <si>
+    <t>kun - hito(tsu) (one)</t>
+  </si>
+  <si>
+    <t>on - ichi</t>
   </si>
 </sst>
 </file>
@@ -1519,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,6 +1814,12 @@
       <c r="B19" t="s">
         <v>113</v>
       </c>
+      <c r="C19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1792,6 +1828,12 @@
       <c r="B20" t="s">
         <v>112</v>
       </c>
+      <c r="C20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1800,6 +1842,12 @@
       <c r="B21" t="s">
         <v>111</v>
       </c>
+      <c r="C21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1808,6 +1856,12 @@
       <c r="B22" t="s">
         <v>110</v>
       </c>
+      <c r="C22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1815,6 +1869,12 @@
       </c>
       <c r="B23" t="s">
         <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
